--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\LayaWorkspace\小游戏文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97733D6-271F-4F8B-BF68-3DAAAA461F08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB553720-E162-4409-B2A1-757D073DE7C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,16 +294,16 @@
                   <c:v>481.78000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>572.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>610.50800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>740.59199999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -695,49 +695,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>345</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.3</c:v>
+                  <c:v>277.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164.2</c:v>
+                  <c:v>358.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.7</c:v>
+                  <c:v>91.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.9</c:v>
+                  <c:v>303.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>320</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3</c:v>
+                  <c:v>12.679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9200000000000004</c:v>
+                  <c:v>5.0720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.8</c:v>
+                  <c:v>138.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.6</c:v>
+                  <c:v>71.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.44</c:v>
+                  <c:v>28.707999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,84 +2633,228 @@
       <c r="A6" s="1">
         <v>43439</v>
       </c>
+      <c r="B6">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>3.8</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.52</v>
+      </c>
+      <c r="M6">
+        <v>38</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>572.91999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43440</v>
       </c>
+      <c r="B7">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>135</v>
+      </c>
+      <c r="K7">
+        <v>1.2</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.48</v>
+      </c>
+      <c r="M7">
+        <v>37</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.8</v>
+      </c>
+      <c r="O7">
+        <v>0.02</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>610.50800000000004</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43441</v>
       </c>
+      <c r="B8">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>52</v>
+      </c>
+      <c r="I8">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>128</v>
+      </c>
+      <c r="K8">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="O8">
+        <v>32</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>740.59199999999987</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43442</v>
       </c>
+      <c r="B9">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M9">
+        <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.15</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>422.35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3199,63 +3343,63 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>345</v>
+        <v>771</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>125.3</v>
+        <v>277.3</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
-        <v>164.2</v>
+        <v>358.2</v>
       </c>
       <c r="E33">
         <f>SUM(E2:E32)</f>
-        <v>47.7</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>119.9</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>798</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>12.679999999999998</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>2.9200000000000004</v>
+        <v>5.0720000000000001</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>74.8</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>28.6</v>
+        <v>71.77000000000001</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>11.44</v>
+        <v>28.707999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3264,7 +3408,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>1828.16</v>
+        <v>4174.53</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\LayaWorkspace\小游戏文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB553720-E162-4409-B2A1-757D073DE7C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -306,16 +305,16 @@
                   <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>416.25999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>643.19200000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>498.34000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>730.31200000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -375,7 +374,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-698C-4F30-B956-02109AADE32F}"/>
             </c:ext>
@@ -391,11 +390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562387408"/>
-        <c:axId val="444013961"/>
+        <c:axId val="1270155120"/>
+        <c:axId val="1270150768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562387408"/>
+        <c:axId val="1270155120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444013961"/>
+        <c:crossAx val="1270150768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -445,7 +444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444013961"/>
+        <c:axId val="1270150768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562387408"/>
+        <c:crossAx val="1270155120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,7 +545,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -586,6 +585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,54 +695,54 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>771</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>277.3</c:v>
+                  <c:v>533.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>358.2</c:v>
+                  <c:v>499.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.100000000000009</c:v>
+                  <c:v>198.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>303.89999999999998</c:v>
+                  <c:v>506.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>354</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>427</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>798</c:v>
+                  <c:v>1152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.679999999999998</c:v>
+                  <c:v>13.759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0720000000000001</c:v>
+                  <c:v>5.5040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>347</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138.80000000000001</c:v>
+                  <c:v>183.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.77000000000001</c:v>
+                  <c:v>73.050000000000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.707999999999998</c:v>
+                  <c:v>29.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D728-42BD-9764-046BC9B3232D}"/>
             </c:ext>
@@ -758,11 +758,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1784367616"/>
-        <c:axId val="1732399152"/>
+        <c:axId val="1270152400"/>
+        <c:axId val="1270158928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1784367616"/>
+        <c:axId val="1270152400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +805,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1732399152"/>
+        <c:crossAx val="1270158928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -813,7 +813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1732399152"/>
+        <c:axId val="1270158928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784367616"/>
+        <c:crossAx val="1270152400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -878,14 +878,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2026,7 +2026,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2062,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ABFC9F-E0E3-41BD-AA20-7A004E3C6BB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ABFC9F-E0E3-41BD-AA20-7A004E3C6BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,11 +2340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2861,75 +2861,219 @@
       <c r="A10" s="1">
         <v>43443</v>
       </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>0.7</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>416.25999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43444</v>
       </c>
+      <c r="B11">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <v>104</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.8</v>
+      </c>
+      <c r="O11">
+        <v>0.08</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>643.19200000000012</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43445</v>
       </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>82</v>
+      </c>
+      <c r="J12">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <v>0.6</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>498.34000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43446</v>
       </c>
+      <c r="B13">
+        <v>126</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>103</v>
+      </c>
+      <c r="J13">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>0.08</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
@@ -2938,7 +3082,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>730.31200000000013</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3343,63 +3487,63 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>771</v>
+        <v>1180</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>277.3</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
-        <v>358.2</v>
+        <v>499.2</v>
       </c>
       <c r="E33">
         <f>SUM(E2:E32)</f>
-        <v>91.100000000000009</v>
+        <v>198.10000000000002</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>303.89999999999998</v>
+        <v>506.9</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
-        <v>354</v>
+        <v>548</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>427</v>
+        <v>762</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>798</v>
+        <v>1152</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>12.679999999999998</v>
+        <v>13.759999999999996</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.0720000000000001</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>138.80000000000001</v>
+        <v>183.60000000000002</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>71.77000000000001</v>
+        <v>73.050000000000011</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>28.707999999999998</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3408,7 +3552,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>4174.53</v>
+        <v>6462.634</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -143,6 +143,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -317,7 +385,7 @@
                   <c:v>730.31200000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>792.452</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -390,11 +458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1270155120"/>
-        <c:axId val="1270150768"/>
+        <c:axId val="317720560"/>
+        <c:axId val="317712400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1270155120"/>
+        <c:axId val="317720560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +504,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270150768"/>
+        <c:crossAx val="317712400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -444,7 +512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270150768"/>
+        <c:axId val="317712400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +563,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270155120"/>
+        <c:crossAx val="317720560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,49 +763,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1180</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>533.29999999999995</c:v>
+                  <c:v>604.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499.2</c:v>
+                  <c:v>546.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.10000000000002</c:v>
+                  <c:v>233.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>506.9</c:v>
+                  <c:v>609.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>762</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1152</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.759999999999996</c:v>
+                  <c:v>13.929999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5040000000000004</c:v>
+                  <c:v>5.5720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>459</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>183.60000000000002</c:v>
+                  <c:v>196.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.050000000000011</c:v>
+                  <c:v>73.060000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.22</c:v>
+                  <c:v>29.224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,11 +826,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1270152400"/>
-        <c:axId val="1270158928"/>
+        <c:axId val="317715120"/>
+        <c:axId val="317715664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1270152400"/>
+        <c:axId val="317715120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270158928"/>
+        <c:crossAx val="317715664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -813,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270158928"/>
+        <c:axId val="317715664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270152400"/>
+        <c:crossAx val="317715120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2094,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2130,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ABFC9F-E0E3-41BD-AA20-7A004E3C6BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ABFC9F-E0E3-41BD-AA20-7A004E3C6BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2159,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2343,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3089,21 +3157,57 @@
       <c r="A14" s="1">
         <v>43447</v>
       </c>
+      <c r="B14">
+        <v>158</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>103</v>
+      </c>
+      <c r="H14">
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <v>96</v>
+      </c>
+      <c r="J14">
+        <v>132</v>
+      </c>
+      <c r="K14">
+        <v>0.17</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M14">
+        <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>792.452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3487,63 +3591,63 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1180</v>
+        <v>1338</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>533.29999999999995</v>
+        <v>604.29999999999995</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D32)</f>
-        <v>499.2</v>
+        <v>546.20000000000005</v>
       </c>
       <c r="E33">
         <f>SUM(E2:E32)</f>
-        <v>198.10000000000002</v>
+        <v>233.10000000000002</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>506.9</v>
+        <v>609.9</v>
       </c>
       <c r="H33">
         <f>SUM(H2:H32)</f>
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>762</v>
+        <v>858</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1152</v>
+        <v>1284</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>13.759999999999996</v>
+        <v>13.929999999999996</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.5040000000000004</v>
+        <v>5.5720000000000001</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>183.60000000000002</v>
+        <v>196.8</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>73.050000000000011</v>
+        <v>73.060000000000016</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>29.22</v>
+        <v>29.224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3552,7 +3656,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>6462.634</v>
+        <v>7255.0860000000002</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="12780"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -31,6 +26,12 @@
   </si>
   <si>
     <t>找茬</t>
+  </si>
+  <si>
+    <t>飞刀</t>
+  </si>
+  <si>
+    <t>滑雪</t>
   </si>
   <si>
     <t>僵尸</t>
@@ -68,20 +69,18 @@
   <si>
     <t>月收入</t>
   </si>
-  <si>
-    <t>滑雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,30 +89,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -131,92 +687,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,6 +791,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -266,8 +799,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645546"/>
-          <c:y val="5.3912485174913725E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -278,26 +811,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -306,10 +819,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
-          <c:y val="0.21898823802177617"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852051"/>
+          <c:x val="0.067463288223438"/>
+          <c:y val="0.218988238021776"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -342,6 +855,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$31</c:f>
@@ -349,7 +865,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>442.84000000000003</c:v>
+                  <c:v>442.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>246.48</c:v>
@@ -358,43 +874,43 @@
                   <c:v>657.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481.78000000000003</c:v>
+                  <c:v>481.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.91999999999996</c:v>
+                  <c:v>572.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.50800000000004</c:v>
+                  <c:v>610.508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.59199999999987</c:v>
+                  <c:v>740.592</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.25999999999993</c:v>
+                  <c:v>416.26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>643.19200000000012</c:v>
+                  <c:v>643.192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>498.34000000000003</c:v>
+                  <c:v>498.34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.31200000000013</c:v>
+                  <c:v>730.312</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>792.452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>839.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>470.472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>316.776</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -442,11 +958,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-698C-4F30-B956-02109AADE32F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -501,7 +1012,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="317712400"/>
@@ -560,7 +1070,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="317720560"/>
@@ -601,7 +1110,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -633,7 +1141,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -662,26 +1170,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -703,6 +1191,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -763,58 +1254,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1338</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604.29999999999995</c:v>
+                  <c:v>850.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546.20000000000005</c:v>
+                  <c:v>642.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.10000000000002</c:v>
+                  <c:v>367.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>364</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>609.9</c:v>
+                  <c:v>695.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>607</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>858</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1284</c:v>
+                  <c:v>1567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.929999999999996</c:v>
+                  <c:v>14.98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5720000000000001</c:v>
+                  <c:v>5.992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>492</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>196.8</c:v>
+                  <c:v>223.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.060000000000016</c:v>
+                  <c:v>76.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.224</c:v>
+                  <c:v>30.412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D728-42BD-9764-046BC9B3232D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -858,7 +1344,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -870,7 +1356,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="317715664"/>
@@ -917,7 +1402,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -929,7 +1414,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="317715120"/>
@@ -947,13 +1431,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -975,9 +1452,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2075,7 +2551,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2089,20 +2565,14 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12299950" y="3666490"/>
+        <a:ext cx="4410710" cy="2803525"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2125,20 +2595,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24ABFC9F-E0E3-41BD-AA20-7A004E3C6BB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12186920" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2403,26 +2867,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="8" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2435,48 +2899,48 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17">
+      <c r="A2" s="2">
         <v>43435</v>
       </c>
       <c r="B2">
@@ -2515,7 +2979,7 @@
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -2526,11 +2990,11 @@
       </c>
       <c r="Q2">
         <f>SUM(B2:P2)</f>
-        <v>442.84000000000003</v>
+        <v>442.84</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:17">
+      <c r="A3" s="2">
         <v>43436</v>
       </c>
       <c r="B3">
@@ -2576,15 +3040,15 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q32" si="3">SUM(B3:P3)</f>
         <v>246.48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17">
+      <c r="A4" s="2">
         <v>43437</v>
       </c>
       <c r="B4">
@@ -2619,7 +3083,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M4">
         <v>47</v>
@@ -2633,15 +3097,15 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.32000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
         <v>657.06</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:17">
+      <c r="A5" s="2">
         <v>43438</v>
       </c>
       <c r="B5">
@@ -2694,11 +3158,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>481.78000000000003</v>
+        <v>481.78</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17">
+      <c r="A6" s="2">
         <v>43439</v>
       </c>
       <c r="B6">
@@ -2740,22 +3204,22 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>15.200000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>572.91999999999996</v>
+        <v>572.92</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17">
+      <c r="A7" s="2">
         <v>43440</v>
       </c>
       <c r="B7">
@@ -2804,15 +3268,15 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>610.50800000000004</v>
+        <v>610.508</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
         <v>43441</v>
       </c>
       <c r="B8">
@@ -2843,18 +3307,18 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.11200000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="M8">
         <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>16.400000000000002</v>
+        <v>16.4</v>
       </c>
       <c r="O8">
         <v>32</v>
@@ -2865,11 +3329,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>740.59199999999987</v>
+        <v>740.592</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:17">
+      <c r="A9" s="2">
         <v>43442</v>
       </c>
       <c r="B9">
@@ -2904,14 +3368,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="O9">
         <v>0.15</v>
@@ -2925,8 +3389,8 @@
         <v>422.35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
         <v>43443</v>
       </c>
       <c r="B10">
@@ -2961,7 +3425,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -2975,15 +3439,15 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>416.25999999999993</v>
+        <v>416.26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
         <v>43444</v>
       </c>
       <c r="B11">
@@ -3018,7 +3482,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M11">
         <v>27</v>
@@ -3032,15 +3496,15 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>643.19200000000012</v>
+        <v>643.192</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
         <v>43445</v>
       </c>
       <c r="B12">
@@ -3093,11 +3557,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>498.34000000000003</v>
+        <v>498.34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
         <v>43446</v>
       </c>
       <c r="B13">
@@ -3132,14 +3596,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="M13">
         <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.200000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3150,11 +3614,11 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>730.31200000000013</v>
+        <v>730.312</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
         <v>43447</v>
       </c>
       <c r="B14">
@@ -3189,92 +3653,200 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O14">
         <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
         <v>792.452</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:17">
+      <c r="A15" s="2">
         <v>43448</v>
+      </c>
+      <c r="B15">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>158</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>139</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>2.3</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>839.78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:17">
+      <c r="A16" s="2">
         <v>43449</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>106</v>
+      </c>
+      <c r="K16">
+        <v>0.19</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.076</v>
+      </c>
+      <c r="M16">
+        <v>22</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8</v>
+      </c>
+      <c r="O16">
+        <v>0.29</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>470.472</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
         <v>43450</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.46</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.184</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6</v>
+      </c>
+      <c r="O17">
+        <v>0.38</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>316.776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
         <v>43451</v>
       </c>
       <c r="L18">
@@ -3282,7 +3854,6 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18">
@@ -3294,8 +3865,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
         <v>43452</v>
       </c>
       <c r="L19">
@@ -3315,8 +3886,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
         <v>43453</v>
       </c>
       <c r="L20">
@@ -3336,8 +3907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
         <v>43454</v>
       </c>
       <c r="L21">
@@ -3357,8 +3928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
         <v>43455</v>
       </c>
       <c r="L22">
@@ -3378,8 +3949,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
         <v>43456</v>
       </c>
       <c r="L23">
@@ -3399,8 +3970,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
         <v>43457</v>
       </c>
       <c r="L24">
@@ -3420,8 +3991,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
         <v>43458</v>
       </c>
       <c r="L25">
@@ -3441,8 +4012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
         <v>43459</v>
       </c>
       <c r="L26">
@@ -3462,8 +4033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
         <v>43460</v>
       </c>
       <c r="L27">
@@ -3483,8 +4054,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
         <v>43461</v>
       </c>
       <c r="L28">
@@ -3504,8 +4075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
         <v>43462</v>
       </c>
       <c r="L29">
@@ -3525,8 +4096,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
         <v>43463</v>
       </c>
       <c r="L30">
@@ -3546,8 +4117,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+    <row r="31" spans="1:17">
+      <c r="A31" s="2">
         <v>43464</v>
       </c>
       <c r="L31">
@@ -3567,8 +4138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
         <v>43465</v>
       </c>
       <c r="L32">
@@ -3588,100 +4159,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1338</v>
+        <v>1604</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>604.29999999999995</v>
+        <v>850.3</v>
       </c>
       <c r="D33">
-        <f>SUM(D2:D32)</f>
-        <v>546.20000000000005</v>
+        <f t="shared" si="4"/>
+        <v>642.2</v>
       </c>
       <c r="E33">
-        <f>SUM(E2:E32)</f>
-        <v>233.10000000000002</v>
+        <f t="shared" si="4"/>
+        <v>367.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>609.9</v>
+        <v>695.9</v>
       </c>
       <c r="H33">
-        <f>SUM(H2:H32)</f>
-        <v>607</v>
+        <f t="shared" si="4"/>
+        <v>704</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>858</v>
+        <v>1032</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1284</v>
+        <v>1567</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>13.929999999999996</v>
+        <v>14.98</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.5720000000000001</v>
+        <v>5.992</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>196.8</v>
+        <v>223.2</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>73.060000000000016</v>
+        <v>76.03</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>29.224</v>
+        <v>30.412</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>7255.0860000000002</v>
+        <v>8882.114</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="F35" s="2"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C38" s="2"/>
-      <c r="F38" s="2"/>
+    <row r="38" spans="3:6">
+      <c r="C38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="F39" s="2"/>
+    <row r="39" spans="6:6">
+      <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -73,14 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,251 +111,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,61 +128,85 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -791,7 +249,6 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -799,8 +256,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.437230060466455"/>
-          <c:y val="0.0539124851749137"/>
+          <c:x val="0.43723006046645502"/>
+          <c:y val="5.3912485174913698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -811,6 +268,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -819,10 +296,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067463288223438"/>
+          <c:x val="6.7463288223438E-2"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.894673193204722"/>
-          <c:h val="0.657786179898521"/>
+          <c:w val="0.89467319320472205"/>
+          <c:h val="0.65778617989852095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -855,9 +332,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$31</c:f>
@@ -865,7 +339,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>442.84</c:v>
+                  <c:v>442.84000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>246.48</c:v>
@@ -874,55 +348,55 @@
                   <c:v>657.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481.78</c:v>
+                  <c:v>481.78000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.92</c:v>
+                  <c:v>572.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.508</c:v>
+                  <c:v>610.50800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.592</c:v>
+                  <c:v>740.59199999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.26</c:v>
+                  <c:v>416.25999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>643.192</c:v>
+                  <c:v>643.19200000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>498.34</c:v>
+                  <c:v>498.34000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.312</c:v>
+                  <c:v>730.31200000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>792.452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>839.78</c:v>
+                  <c:v>839.77999999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470.472</c:v>
+                  <c:v>470.47200000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>316.776</c:v>
+                  <c:v>316.77600000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>456.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>586.3599999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>489.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>621.14</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -969,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317720560"/>
-        <c:axId val="317712400"/>
+        <c:axId val="-512036416"/>
+        <c:axId val="-512035872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317720560"/>
+        <c:axId val="-512036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,9 +486,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317712400"/>
+        <c:crossAx val="-512035872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317712400"/>
+        <c:axId val="-512035872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,9 +545,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317720560"/>
+        <c:crossAx val="-512036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,6 +586,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1170,6 +647,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1191,9 +688,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -1254,49 +748,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1604</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>850.3</c:v>
+                  <c:v>1050.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642.2</c:v>
+                  <c:v>944.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>367.1</c:v>
+                  <c:v>659.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>695.9</c:v>
+                  <c:v>849.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>704</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1032</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1567</c:v>
+                  <c:v>1868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.98</c:v>
+                  <c:v>16.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.992</c:v>
+                  <c:v>6.532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>558</c:v>
+                  <c:v>615.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223.2</c:v>
+                  <c:v>239.16000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.03</c:v>
+                  <c:v>76.030000000000015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.412</c:v>
+                  <c:v>30.411999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,11 +806,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317715120"/>
-        <c:axId val="317715664"/>
+        <c:axId val="-681819280"/>
+        <c:axId val="-510762608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317715120"/>
+        <c:axId val="-681819280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,9 +850,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317715664"/>
+        <c:crossAx val="-510762608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,7 +861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317715664"/>
+        <c:axId val="-510762608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,9 +909,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317715120"/>
+        <c:crossAx val="-681819280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,6 +950,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2551,7 +2048,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2565,14 +2062,14 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12299950" y="3666490"/>
-        <a:ext cx="4410710" cy="2803525"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2595,14 +2092,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12186920" y="242570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2867,26 +2364,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="8" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43435</v>
       </c>
@@ -2979,7 +2476,7 @@
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>13.2</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -2990,10 +2487,10 @@
       </c>
       <c r="Q2">
         <f>SUM(B2:P2)</f>
-        <v>442.84</v>
+        <v>442.84000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43436</v>
       </c>
@@ -3040,14 +2537,14 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q32" si="3">SUM(B3:P3)</f>
         <v>246.48</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43437</v>
       </c>
@@ -3083,7 +2580,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M4">
         <v>47</v>
@@ -3097,14 +2594,14 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.32</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
         <v>657.06</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43438</v>
       </c>
@@ -3158,10 +2655,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>481.78</v>
+        <v>481.78000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43439</v>
       </c>
@@ -3204,21 +2701,21 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>572.92</v>
+        <v>572.91999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43440</v>
       </c>
@@ -3268,14 +2765,14 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>610.508</v>
+        <v>610.50800000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43441</v>
       </c>
@@ -3307,18 +2804,18 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="M8">
         <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>16.4</v>
+        <v>16.400000000000002</v>
       </c>
       <c r="O8">
         <v>32</v>
@@ -3329,10 +2826,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>740.592</v>
+        <v>740.59199999999987</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43442</v>
       </c>
@@ -3368,14 +2865,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O9">
         <v>0.15</v>
@@ -3389,7 +2886,7 @@
         <v>422.35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43443</v>
       </c>
@@ -3425,7 +2922,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -3439,14 +2936,14 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.28</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>416.26</v>
+        <v>416.25999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43444</v>
       </c>
@@ -3482,7 +2979,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="M11">
         <v>27</v>
@@ -3496,14 +2993,14 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>643.192</v>
+        <v>643.19200000000012</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43445</v>
       </c>
@@ -3557,10 +3054,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>498.34</v>
+        <v>498.34000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43446</v>
       </c>
@@ -3596,14 +3093,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M13">
         <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3614,10 +3111,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>730.312</v>
+        <v>730.31200000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43447</v>
       </c>
@@ -3653,28 +3150,28 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>13.2</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O14">
         <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
         <v>792.452</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43448</v>
       </c>
@@ -3710,7 +3207,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -3720,18 +3217,18 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.92</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>839.78</v>
+        <v>839.77999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43449</v>
       </c>
@@ -3767,28 +3264,28 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0.076</v>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O16">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.116</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>470.472</v>
+        <v>470.47200000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43450</v>
       </c>
@@ -3824,36 +3321,72 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.184</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="M17">
         <v>19</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="O17">
         <v>0.38</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.152</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>316.776</v>
+        <v>316.77600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43451</v>
       </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>56</v>
+      </c>
+      <c r="J18">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
@@ -3862,19 +3395,55 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>456.12</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43452</v>
       </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>129</v>
+      </c>
+      <c r="K19">
+        <v>0.4</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
@@ -3883,19 +3452,55 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>586.3599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43453</v>
       </c>
+      <c r="B20">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>143</v>
+      </c>
+      <c r="E20">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M20">
+        <v>7.9</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
+        <v>3.16</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
@@ -3904,19 +3509,55 @@
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>489.13</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43454</v>
       </c>
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>116</v>
+      </c>
+      <c r="F21">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>52</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>0.1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
@@ -3925,10 +3566,10 @@
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>621.14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43455</v>
       </c>
@@ -3949,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43456</v>
       </c>
@@ -3970,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43457</v>
       </c>
@@ -3991,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43458</v>
       </c>
@@ -4012,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43459</v>
       </c>
@@ -4033,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43460</v>
       </c>
@@ -4054,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43461</v>
       </c>
@@ -4075,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43462</v>
       </c>
@@ -4096,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43463</v>
       </c>
@@ -4117,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43464</v>
       </c>
@@ -4138,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
@@ -4159,100 +3800,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1604</v>
+        <v>1907</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>850.3</v>
+        <v>1050.3</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>642.2</v>
+        <v>944.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>367.1</v>
+        <v>659.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>694</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>695.9</v>
+        <v>849.9</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>704</v>
+        <v>834</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1032</v>
+        <v>1244</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1567</v>
+        <v>1868</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>14.98</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.992</v>
+        <v>6.532</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>558</v>
+        <v>615.9</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>223.2</v>
+        <v>239.16000000000003</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>76.03</v>
+        <v>76.030000000000015</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>30.412</v>
+        <v>30.411999999999999</v>
       </c>
     </row>
-    <row r="34" spans="16:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>8882.114</v>
+        <v>11034.864</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -78,8 +73,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +89,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -128,85 +694,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,6 +791,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -256,8 +799,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645502"/>
-          <c:y val="5.3912485174913698E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -268,26 +811,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -296,10 +819,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
+          <c:x val="0.067463288223438"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852095"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -332,6 +855,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$31</c:f>
@@ -339,7 +865,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>442.84000000000003</c:v>
+                  <c:v>442.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>246.48</c:v>
@@ -348,49 +874,49 @@
                   <c:v>657.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481.78000000000003</c:v>
+                  <c:v>481.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.91999999999996</c:v>
+                  <c:v>572.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.50800000000004</c:v>
+                  <c:v>610.508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.59199999999987</c:v>
+                  <c:v>740.592</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.25999999999993</c:v>
+                  <c:v>416.26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>643.19200000000012</c:v>
+                  <c:v>643.192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>498.34000000000003</c:v>
+                  <c:v>498.34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.31200000000013</c:v>
+                  <c:v>730.312</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>792.452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>839.77999999999986</c:v>
+                  <c:v>839.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470.47200000000004</c:v>
+                  <c:v>470.472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>316.77600000000001</c:v>
+                  <c:v>316.776</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>456.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>586.3599999999999</c:v>
+                  <c:v>586.36</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>489.13</c:v>
@@ -399,10 +925,10 @@
                   <c:v>621.14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>782.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>589.74</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -486,7 +1012,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-512035872"/>
@@ -545,7 +1070,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-512036416"/>
@@ -586,7 +1110,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -647,26 +1170,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -688,6 +1191,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -748,49 +1254,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1907</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1050.3</c:v>
+                  <c:v>1194.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>944.2</c:v>
+                  <c:v>1072.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>659.1</c:v>
+                  <c:v>864.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>694</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>849.9</c:v>
+                  <c:v>1005.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>834</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1244</c:v>
+                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1868</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.329999999999998</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.532</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>615.9</c:v>
+                  <c:v>652.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>239.16000000000003</c:v>
+                  <c:v>253.96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.030000000000015</c:v>
+                  <c:v>76.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.411999999999999</c:v>
+                  <c:v>30.584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +1356,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-510762608"/>
@@ -909,7 +1414,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-681819280"/>
@@ -950,7 +1454,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2048,7 +2551,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2062,14 +2565,14 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12299950" y="3666490"/>
+        <a:ext cx="4410710" cy="2803525"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2092,14 +2595,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12186920" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2364,26 +2867,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="8" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43435</v>
       </c>
@@ -2476,7 +2979,7 @@
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -2487,10 +2990,10 @@
       </c>
       <c r="Q2">
         <f>SUM(B2:P2)</f>
-        <v>442.84000000000003</v>
+        <v>442.84</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43436</v>
       </c>
@@ -2537,14 +3040,14 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q32" si="3">SUM(B3:P3)</f>
         <v>246.48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43437</v>
       </c>
@@ -2580,7 +3083,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M4">
         <v>47</v>
@@ -2594,14 +3097,14 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.32000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
         <v>657.06</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43438</v>
       </c>
@@ -2655,10 +3158,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>481.78000000000003</v>
+        <v>481.78</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43439</v>
       </c>
@@ -2701,21 +3204,21 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>15.200000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>572.91999999999996</v>
+        <v>572.92</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43440</v>
       </c>
@@ -2765,14 +3268,14 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>610.50800000000004</v>
+        <v>610.508</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43441</v>
       </c>
@@ -2804,18 +3307,18 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.11200000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="M8">
         <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>16.400000000000002</v>
+        <v>16.4</v>
       </c>
       <c r="O8">
         <v>32</v>
@@ -2826,10 +3329,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>740.59199999999987</v>
+        <v>740.592</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43442</v>
       </c>
@@ -2865,14 +3368,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="O9">
         <v>0.15</v>
@@ -2886,7 +3389,7 @@
         <v>422.35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43443</v>
       </c>
@@ -2922,7 +3425,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -2936,14 +3439,14 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>416.25999999999993</v>
+        <v>416.26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43444</v>
       </c>
@@ -2979,7 +3482,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M11">
         <v>27</v>
@@ -2993,14 +3496,14 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>643.19200000000012</v>
+        <v>643.192</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43445</v>
       </c>
@@ -3054,10 +3557,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>498.34000000000003</v>
+        <v>498.34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43446</v>
       </c>
@@ -3093,14 +3596,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="M13">
         <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.200000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3111,10 +3614,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>730.31200000000013</v>
+        <v>730.312</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43447</v>
       </c>
@@ -3150,28 +3653,28 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O14">
         <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
         <v>792.452</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43448</v>
       </c>
@@ -3207,7 +3710,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -3217,18 +3720,18 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>839.77999999999986</v>
+        <v>839.78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43449</v>
       </c>
@@ -3264,28 +3767,28 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>7.6000000000000012E-2</v>
+        <v>0.076</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="O16">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.11599999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>470.47200000000004</v>
+        <v>470.472</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43450</v>
       </c>
@@ -3321,28 +3824,28 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.18400000000000002</v>
+        <v>0.184</v>
       </c>
       <c r="M17">
         <v>19</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>7.6000000000000005</v>
+        <v>7.6</v>
       </c>
       <c r="O17">
         <v>0.38</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>316.77600000000001</v>
+        <v>316.776</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43451</v>
       </c>
@@ -3378,7 +3881,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.32000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="M18">
         <v>18</v>
@@ -3398,7 +3901,7 @@
         <v>456.12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43452</v>
       </c>
@@ -3434,14 +3937,14 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M19">
         <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3452,10 +3955,10 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>586.3599999999999</v>
+        <v>586.36</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43453</v>
       </c>
@@ -3491,7 +3994,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M20">
         <v>7.9</v>
@@ -3512,7 +4015,7 @@
         <v>489.13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43454</v>
       </c>
@@ -3548,7 +4051,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -3569,49 +4072,121 @@
         <v>621.14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43455</v>
       </c>
+      <c r="B22">
+        <v>149</v>
+      </c>
+      <c r="C22">
+        <v>102</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+      <c r="F22">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>91</v>
+      </c>
+      <c r="K22">
+        <v>0.2</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>782.3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43456</v>
       </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>115</v>
+      </c>
+      <c r="F23">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>77</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>105</v>
+      </c>
+      <c r="K23">
+        <v>0.97</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.388</v>
+      </c>
+      <c r="M23">
+        <v>23</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.2</v>
+      </c>
+      <c r="O23">
+        <v>0.13</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>589.74</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43457</v>
       </c>
@@ -3632,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43458</v>
       </c>
@@ -3653,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43459</v>
       </c>
@@ -3674,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43460</v>
       </c>
@@ -3695,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43461</v>
       </c>
@@ -3716,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43462</v>
       </c>
@@ -3737,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43463</v>
       </c>
@@ -3758,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43464</v>
       </c>
@@ -3779,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
@@ -3800,100 +4375,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1907</v>
+        <v>2161</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1050.3</v>
+        <v>1194.3</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>944.2</v>
+        <v>1072.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>659.1</v>
+        <v>864.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>694</v>
+        <v>837</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>849.9</v>
+        <v>1005.9</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1244</v>
+        <v>1308</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1868</v>
+        <v>2064</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>16.329999999999998</v>
+        <v>17.5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>6.532</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>615.9</v>
+        <v>652.9</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>239.16000000000003</v>
+        <v>253.96</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>76.030000000000015</v>
+        <v>76.46</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>30.411999999999999</v>
+        <v>30.584</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>11034.864</v>
+        <v>12406.904</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:6">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -73,14 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,251 +111,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,61 +128,85 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -791,7 +249,6 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -799,8 +256,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.437230060466455"/>
-          <c:y val="0.0539124851749137"/>
+          <c:x val="0.43723006046645502"/>
+          <c:y val="5.3912485174913698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -811,6 +268,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -819,10 +296,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067463288223438"/>
+          <c:x val="6.7463288223438E-2"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.894673193204722"/>
-          <c:h val="0.657786179898521"/>
+          <c:w val="0.89467319320472205"/>
+          <c:h val="0.65778617989852095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -855,9 +332,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$31</c:f>
@@ -865,7 +339,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>442.84</c:v>
+                  <c:v>442.84000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>246.48</c:v>
@@ -874,49 +348,49 @@
                   <c:v>657.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481.78</c:v>
+                  <c:v>481.78000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.92</c:v>
+                  <c:v>572.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.508</c:v>
+                  <c:v>610.50800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.592</c:v>
+                  <c:v>740.59199999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>422.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.26</c:v>
+                  <c:v>416.25999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>643.192</c:v>
+                  <c:v>643.19200000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>498.34</c:v>
+                  <c:v>498.34000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.312</c:v>
+                  <c:v>730.31200000000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>792.452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>839.78</c:v>
+                  <c:v>839.77999999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470.472</c:v>
+                  <c:v>470.47200000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>316.776</c:v>
+                  <c:v>316.77600000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>456.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>586.36</c:v>
+                  <c:v>586.3599999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>489.13</c:v>
@@ -925,13 +399,13 @@
                   <c:v>621.14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>782.3</c:v>
+                  <c:v>782.30000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>589.74</c:v>
+                  <c:v>589.74000000000012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>511.66399999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -969,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-512036416"/>
-        <c:axId val="-512035872"/>
+        <c:axId val="-2066769280"/>
+        <c:axId val="-2066759488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-512036416"/>
+        <c:axId val="-2066769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,9 +486,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-512035872"/>
+        <c:crossAx val="-2066759488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-512035872"/>
+        <c:axId val="-2066759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,9 +545,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-512036416"/>
+        <c:crossAx val="-2066769280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,6 +586,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1170,6 +647,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1191,9 +688,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -1254,49 +748,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2161</c:v>
+                  <c:v>2207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1194.3</c:v>
+                  <c:v>1247.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1072.2</c:v>
+                  <c:v>1177.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>864.1</c:v>
+                  <c:v>927.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>837</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1005.9</c:v>
+                  <c:v>1084.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>862</c:v>
+                  <c:v>864.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1308</c:v>
+                  <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2064</c:v>
+                  <c:v>2133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>20.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>652.9</c:v>
+                  <c:v>667.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>253.96</c:v>
+                  <c:v>259.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.46</c:v>
+                  <c:v>76.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.584</c:v>
+                  <c:v>30.608000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,11 +806,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-681819280"/>
-        <c:axId val="-510762608"/>
+        <c:axId val="-2066766560"/>
+        <c:axId val="-2066772544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-681819280"/>
+        <c:axId val="-2066766560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,9 +850,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-510762608"/>
+        <c:crossAx val="-2066772544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,7 +861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-510762608"/>
+        <c:axId val="-2066772544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,9 +909,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-681819280"/>
+        <c:crossAx val="-2066766560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,6 +950,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2551,7 +2048,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2565,14 +2062,14 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12299950" y="3666490"/>
-        <a:ext cx="4410710" cy="2803525"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2595,14 +2092,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12186920" y="242570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2867,26 +2364,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="8" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43435</v>
       </c>
@@ -2979,7 +2476,7 @@
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>13.2</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -2990,10 +2487,10 @@
       </c>
       <c r="Q2">
         <f>SUM(B2:P2)</f>
-        <v>442.84</v>
+        <v>442.84000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43436</v>
       </c>
@@ -3040,14 +2537,14 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q32" si="3">SUM(B3:P3)</f>
         <v>246.48</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43437</v>
       </c>
@@ -3083,7 +2580,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M4">
         <v>47</v>
@@ -3097,14 +2594,14 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.32</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
         <v>657.06</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43438</v>
       </c>
@@ -3158,10 +2655,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>481.78</v>
+        <v>481.78000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43439</v>
       </c>
@@ -3204,21 +2701,21 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>572.92</v>
+        <v>572.91999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43440</v>
       </c>
@@ -3268,14 +2765,14 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>610.508</v>
+        <v>610.50800000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43441</v>
       </c>
@@ -3307,18 +2804,18 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="M8">
         <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>16.4</v>
+        <v>16.400000000000002</v>
       </c>
       <c r="O8">
         <v>32</v>
@@ -3329,10 +2826,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>740.592</v>
+        <v>740.59199999999987</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43442</v>
       </c>
@@ -3368,14 +2865,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O9">
         <v>0.15</v>
@@ -3389,7 +2886,7 @@
         <v>422.35</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43443</v>
       </c>
@@ -3425,7 +2922,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -3439,14 +2936,14 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.28</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>416.26</v>
+        <v>416.25999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43444</v>
       </c>
@@ -3482,7 +2979,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="M11">
         <v>27</v>
@@ -3496,14 +2993,14 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>643.192</v>
+        <v>643.19200000000012</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43445</v>
       </c>
@@ -3557,10 +3054,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>498.34</v>
+        <v>498.34000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43446</v>
       </c>
@@ -3596,14 +3093,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M13">
         <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3614,10 +3111,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>730.312</v>
+        <v>730.31200000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43447</v>
       </c>
@@ -3653,28 +3150,28 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>13.2</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O14">
         <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
         <v>792.452</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43448</v>
       </c>
@@ -3710,7 +3207,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -3720,18 +3217,18 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.92</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>839.78</v>
+        <v>839.77999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43449</v>
       </c>
@@ -3767,28 +3264,28 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0.076</v>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O16">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.116</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>470.472</v>
+        <v>470.47200000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43450</v>
       </c>
@@ -3824,28 +3321,28 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.184</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="M17">
         <v>19</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="O17">
         <v>0.38</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.152</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>316.776</v>
+        <v>316.77600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43451</v>
       </c>
@@ -3881,7 +3378,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="M18">
         <v>18</v>
@@ -3901,7 +3398,7 @@
         <v>456.12</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43452</v>
       </c>
@@ -3937,14 +3434,14 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M19">
         <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3955,10 +3452,10 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>586.36</v>
+        <v>586.3599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43453</v>
       </c>
@@ -3994,7 +3491,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="M20">
         <v>7.9</v>
@@ -4015,7 +3512,7 @@
         <v>489.13</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43454</v>
       </c>
@@ -4051,7 +3548,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -4072,7 +3569,7 @@
         <v>621.14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43455</v>
       </c>
@@ -4108,14 +3605,14 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="M22">
         <v>14</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O22">
         <v>0.3</v>
@@ -4126,10 +3623,10 @@
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>782.3</v>
+        <v>782.30000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43456</v>
       </c>
@@ -4165,49 +3662,85 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="M23">
         <v>23</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>9.2</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="O23">
         <v>0.13</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.052</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>589.74</v>
+        <v>589.74000000000012</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43457</v>
       </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>105</v>
+      </c>
+      <c r="E24">
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>79</v>
+      </c>
+      <c r="H24">
+        <v>2.8</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>69</v>
+      </c>
+      <c r="K24">
+        <v>2.7</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.08</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>0.06</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Q24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>511.66399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43458</v>
       </c>
@@ -4228,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43459</v>
       </c>
@@ -4249,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43460</v>
       </c>
@@ -4270,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43461</v>
       </c>
@@ -4291,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43462</v>
       </c>
@@ -4312,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43463</v>
       </c>
@@ -4333,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43464</v>
       </c>
@@ -4354,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
@@ -4375,100 +3908,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>2161</v>
+        <v>2207</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1194.3</v>
+        <v>1247.3</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1072.2</v>
+        <v>1177.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>864.1</v>
+        <v>927.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>837</v>
+        <v>885</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1005.9</v>
+        <v>1084.9000000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>862</v>
+        <v>864.8</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1308</v>
+        <v>1329</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>2064</v>
+        <v>2133</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>17.5</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8.08</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>652.9</v>
+        <v>667.9</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>253.96</v>
+        <v>259.96000000000004</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>76.46</v>
+        <v>76.52000000000001</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>30.584</v>
+        <v>30.608000000000001</v>
       </c>
     </row>
-    <row r="34" spans="16:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>12406.904</v>
+        <v>12918.567999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -133,74 +133,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,7 +340,7 @@
                   <c:v>511.66399999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>460.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -443,11 +375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066769280"/>
-        <c:axId val="-2066759488"/>
+        <c:axId val="886143568"/>
+        <c:axId val="886144112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066769280"/>
+        <c:axId val="886143568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066759488"/>
+        <c:crossAx val="886144112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066759488"/>
+        <c:axId val="886144112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066769280"/>
+        <c:crossAx val="886143568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -748,49 +680,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2207</c:v>
+                  <c:v>2301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1247.3</c:v>
+                  <c:v>1255.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1177.2</c:v>
+                  <c:v>1208.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>927.1</c:v>
+                  <c:v>1013.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>885</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1084.9000000000001</c:v>
+                  <c:v>1119.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>864.8</c:v>
+                  <c:v>867.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1329</c:v>
+                  <c:v>1335.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2133</c:v>
+                  <c:v>2219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.199999999999996</c:v>
+                  <c:v>20.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.08</c:v>
+                  <c:v>8.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>667.9</c:v>
+                  <c:v>682.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>259.96000000000004</c:v>
+                  <c:v>265.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.52000000000001</c:v>
+                  <c:v>76.670000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.608000000000001</c:v>
+                  <c:v>30.667999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,11 +738,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2066766560"/>
-        <c:axId val="-2066772544"/>
+        <c:axId val="886131056"/>
+        <c:axId val="886129424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066766560"/>
+        <c:axId val="886131056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +785,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066772544"/>
+        <c:crossAx val="886129424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -861,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066772544"/>
+        <c:axId val="886129424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066766560"/>
+        <c:crossAx val="886131056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2120,7 +2052,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2372,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3744,21 +3676,57 @@
       <c r="A25" s="2">
         <v>43458</v>
       </c>
+      <c r="B25">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>7.9</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>89</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>2.8</v>
+      </c>
+      <c r="I25">
+        <v>6.6</v>
+      </c>
+      <c r="J25">
+        <v>86</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>0.15</v>
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>460.35</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -3911,63 +3879,63 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>2207</v>
+        <v>2301</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1247.3</v>
+        <v>1255.2</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1177.2</v>
+        <v>1208.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>927.1</v>
+        <v>1013.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1084.9000000000001</v>
+        <v>1119.9000000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>864.8</v>
+        <v>867.59999999999991</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1329</v>
+        <v>1335.6</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>2133</v>
+        <v>2219</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>20.199999999999996</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>8.08</v>
+        <v>8.32</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>667.9</v>
+        <v>682.9</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>259.96000000000004</v>
+        <v>265.96000000000004</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>76.52000000000001</v>
+        <v>76.670000000000016</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>30.608000000000001</v>
+        <v>30.667999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3976,7 +3944,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>12918.567999999999</v>
+        <v>13378.918</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -343,16 +343,16 @@
                   <c:v>460.35</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>808.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>734.54000000000008</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>698.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>913.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -375,11 +375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="886143568"/>
-        <c:axId val="886144112"/>
+        <c:axId val="-300975776"/>
+        <c:axId val="-300974144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="886143568"/>
+        <c:axId val="-300975776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886144112"/>
+        <c:crossAx val="-300974144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -429,7 +429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="886144112"/>
+        <c:axId val="-300974144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886143568"/>
+        <c:crossAx val="-300975776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,43 +680,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2301</c:v>
+                  <c:v>2683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1255.2</c:v>
+                  <c:v>1641.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1208.2</c:v>
+                  <c:v>1599.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1013.1</c:v>
+                  <c:v>1388.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>974</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1119.9000000000001</c:v>
+                  <c:v>1492.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>867.59999999999991</c:v>
+                  <c:v>987.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1335.6</c:v>
+                  <c:v>1655.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2219</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.799999999999997</c:v>
+                  <c:v>27.499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>682.9</c:v>
+                  <c:v>734.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265.96000000000004</c:v>
+                  <c:v>286.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>76.670000000000016</c:v>
@@ -738,11 +738,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="886131056"/>
-        <c:axId val="886129424"/>
+        <c:axId val="-300965984"/>
+        <c:axId val="-300965440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="886131056"/>
+        <c:axId val="-300965984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886129424"/>
+        <c:crossAx val="-300965440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="886129424"/>
+        <c:axId val="-300965440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +844,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886131056"/>
+        <c:crossAx val="-300965984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3733,12 +3733,48 @@
       <c r="A26" s="2">
         <v>43459</v>
       </c>
+      <c r="B26">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>126</v>
+      </c>
+      <c r="D26">
+        <v>111</v>
+      </c>
+      <c r="E26">
+        <v>139</v>
+      </c>
+      <c r="F26">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>119</v>
+      </c>
+      <c r="H26">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>58</v>
+      </c>
+      <c r="J26">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.7</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
@@ -3747,19 +3783,55 @@
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>808.78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43460</v>
       </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>78</v>
+      </c>
+      <c r="F27">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>95</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>73</v>
+      </c>
+      <c r="J27">
+        <v>123</v>
+      </c>
+      <c r="K27">
+        <v>1.5</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M27">
+        <v>14.6</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
+        <v>5.84</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
@@ -3768,19 +3840,55 @@
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>734.54000000000008</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43461</v>
       </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>101</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>49</v>
+      </c>
+      <c r="I28">
+        <v>132</v>
+      </c>
+      <c r="J28">
+        <v>103</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
@@ -3789,19 +3897,55 @@
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>698.8</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43462</v>
       </c>
+      <c r="B29">
+        <v>149</v>
+      </c>
+      <c r="C29">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>57</v>
+      </c>
+      <c r="F29">
+        <v>110</v>
+      </c>
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29">
+        <v>7.7</v>
+      </c>
+      <c r="I29">
+        <v>57</v>
+      </c>
+      <c r="J29">
+        <v>121</v>
+      </c>
+      <c r="K29">
+        <v>3.5</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
@@ -3810,7 +3954,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>913.2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3879,55 +4023,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>2301</v>
+        <v>2683</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1255.2</v>
+        <v>1641.2</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1208.2</v>
+        <v>1599.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1013.1</v>
+        <v>1388.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>974</v>
+        <v>1298</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1119.9000000000001</v>
+        <v>1492.9</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>867.59999999999991</v>
+        <v>987.3</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1335.6</v>
+        <v>1655.6</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>2219</v>
+        <v>2622</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>20.799999999999997</v>
+        <v>27.499999999999996</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>8.32</v>
+        <v>11</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>682.9</v>
+        <v>734.5</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>265.96000000000004</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3944,7 +4088,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>13378.918</v>
+        <v>16534.238000000001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/12月小游戏收入.xlsx
+++ b/小游戏文档/12月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="22545" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -74,12 +69,33 @@
   <si>
     <t>月收入</t>
   </si>
+  <si>
+    <t>卡1</t>
+  </si>
+  <si>
+    <t>扣税后</t>
+  </si>
+  <si>
+    <t>总共到账</t>
+  </si>
+  <si>
+    <t>卡2</t>
+  </si>
+  <si>
+    <t>公司到账</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +104,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,13 +450,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,18 +708,65 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -181,6 +809,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -188,8 +817,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645502"/>
-          <c:y val="5.3912485174913698E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -200,26 +829,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -228,10 +837,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
+          <c:x val="0.067463288223438"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852095"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -264,101 +873,107 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$31</c:f>
+              <c:f>Sheet1!$Q$2:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>442.84000000000003</c:v>
+                  <c:v>402.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>246.48</c:v>
+                  <c:v>205.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>657.06</c:v>
+                  <c:v>609.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481.78000000000003</c:v>
+                  <c:v>388.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>572.91999999999996</c:v>
+                  <c:v>520.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.50800000000004</c:v>
+                  <c:v>572.288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.59199999999987</c:v>
+                  <c:v>667.312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>422.35</c:v>
+                  <c:v>378.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.25999999999993</c:v>
+                  <c:v>390.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>643.19200000000012</c:v>
+                  <c:v>615.912</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>498.34000000000003</c:v>
+                  <c:v>465.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>730.31200000000013</c:v>
+                  <c:v>702.232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>792.452</c:v>
+                  <c:v>759.272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>839.77999999999986</c:v>
+                  <c:v>812.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>470.47200000000004</c:v>
+                  <c:v>447.992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>316.77600000000001</c:v>
+                  <c:v>296.936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>456.12</c:v>
+                  <c:v>437.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>586.3599999999999</c:v>
+                  <c:v>573.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>489.13</c:v>
+                  <c:v>481.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>621.14</c:v>
+                  <c:v>601.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>782.30000000000007</c:v>
+                  <c:v>767.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>589.74000000000012</c:v>
+                  <c:v>565.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>511.66399999999999</c:v>
+                  <c:v>493.904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460.35</c:v>
+                  <c:v>444.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>808.78</c:v>
+                  <c:v>796.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>734.54000000000008</c:v>
+                  <c:v>718.44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>698.8</c:v>
+                  <c:v>686.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>913.2</c:v>
+                  <c:v>895.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1250.264</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>889.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>713.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,7 +1033,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-300974144"/>
@@ -477,7 +1091,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-300975776"/>
@@ -518,7 +1131,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -579,26 +1191,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -620,6 +1212,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -680,49 +1275,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2683</c:v>
+                  <c:v>3042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1641.2</c:v>
+                  <c:v>1978.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599.2</c:v>
+                  <c:v>1986.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1388.1</c:v>
+                  <c:v>1789.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1298</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1492.9</c:v>
+                  <c:v>1830.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>987.3</c:v>
+                  <c:v>1055.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1655.6</c:v>
+                  <c:v>1831.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2622</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.499999999999996</c:v>
+                  <c:v>28.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>734.5</c:v>
+                  <c:v>787.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>286.60000000000002</c:v>
+                  <c:v>307.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.670000000000016</c:v>
+                  <c:v>77.17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.667999999999999</c:v>
+                  <c:v>30.868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,7 +1377,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-300965440"/>
@@ -841,7 +1435,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-300965984"/>
@@ -882,7 +1475,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1980,28 +2572,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441325</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>51435</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="13081000" y="3666490"/>
+        <a:ext cx="5010150" cy="2898140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2024,14 +2616,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12967970" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2052,7 +2644,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2296,26 +2888,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="8" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="8" width="6.875" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43435</v>
       </c>
@@ -2408,7 +3005,7 @@
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O2">
         <v>2.6</v>
@@ -2418,11 +3015,11 @@
         <v>1.04</v>
       </c>
       <c r="Q2">
-        <f>SUM(B2:P2)</f>
-        <v>442.84000000000003</v>
+        <f>SUM(B2:J2,L2,N2,P2)</f>
+        <v>402.24</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43436</v>
       </c>
@@ -2469,14 +3066,14 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q32" si="3">SUM(B3:P3)</f>
-        <v>246.48</v>
+        <f>SUM(B3:J3,L3,N3,P3)</f>
+        <v>205.78</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43437</v>
       </c>
@@ -2512,7 +3109,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M4">
         <v>47</v>
@@ -2526,14 +3123,14 @@
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>0.32000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>657.06</v>
+        <f>SUM(B4:J4,L4,N4,P4)</f>
+        <v>609.16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43438</v>
       </c>
@@ -2586,11 +3183,11 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>481.78000000000003</v>
+        <f>SUM(B5:J5,L5,N5,P5)</f>
+        <v>388.08</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43439</v>
       </c>
@@ -2633,21 +3230,21 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>15.200000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="O6">
         <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>572.91999999999996</v>
+        <f t="shared" ref="Q6:Q31" si="3">SUM(B6:J6,L6,N6,P6)</f>
+        <v>520.12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43440</v>
       </c>
@@ -2697,14 +3294,14 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>610.50800000000004</v>
+        <v>572.288</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43441</v>
       </c>
@@ -2736,18 +3333,18 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.11200000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="M8">
         <v>41</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>16.400000000000002</v>
+        <v>16.4</v>
       </c>
       <c r="O8">
         <v>32</v>
@@ -2758,10 +3355,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>740.59199999999987</v>
+        <v>667.312</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43442</v>
       </c>
@@ -2797,14 +3394,14 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M9">
         <v>44</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="O9">
         <v>0.15</v>
@@ -2815,10 +3412,10 @@
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>422.35</v>
+        <v>378.1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43443</v>
       </c>
@@ -2854,7 +3451,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M10">
         <v>25</v>
@@ -2868,14 +3465,14 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.27999999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>416.25999999999993</v>
+        <v>390.36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43444</v>
       </c>
@@ -2911,7 +3508,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M11">
         <v>27</v>
@@ -2925,14 +3522,14 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>643.19200000000012</v>
+        <v>615.912</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43445</v>
       </c>
@@ -2986,10 +3583,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>498.34000000000003</v>
+        <v>465.24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43446</v>
       </c>
@@ -3025,14 +3622,14 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="M13">
         <v>28</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>11.200000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3043,10 +3640,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>730.31200000000013</v>
+        <v>702.232</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43447</v>
       </c>
@@ -3082,28 +3679,28 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="M14">
         <v>33</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="O14">
         <v>0.01</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>792.452</v>
+        <v>759.272</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43448</v>
       </c>
@@ -3139,7 +3736,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M15">
         <v>25</v>
@@ -3149,18 +3746,18 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.91999999999999993</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>839.77999999999986</v>
+        <v>812.08</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43449</v>
       </c>
@@ -3196,28 +3793,28 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>7.6000000000000012E-2</v>
+        <v>0.076</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="O16">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.11599999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>470.47200000000004</v>
+        <v>447.992</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43450</v>
       </c>
@@ -3253,28 +3850,28 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.18400000000000002</v>
+        <v>0.184</v>
       </c>
       <c r="M17">
         <v>19</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>7.6000000000000005</v>
+        <v>7.6</v>
       </c>
       <c r="O17">
         <v>0.38</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>316.77600000000001</v>
+        <v>296.936</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43451</v>
       </c>
@@ -3310,7 +3907,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.32000000000000006</v>
+        <v>0.32</v>
       </c>
       <c r="M18">
         <v>18</v>
@@ -3327,10 +3924,10 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>456.12</v>
+        <v>437.32</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43452</v>
       </c>
@@ -3366,14 +3963,14 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M19">
         <v>12</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3384,10 +3981,10 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>586.3599999999999</v>
+        <v>573.96</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43453</v>
       </c>
@@ -3423,7 +4020,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M20">
         <v>7.9</v>
@@ -3441,10 +4038,10 @@
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
-        <v>489.13</v>
+        <v>481.18</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43454</v>
       </c>
@@ -3480,7 +4077,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M21">
         <v>20</v>
@@ -3498,10 +4095,10 @@
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
-        <v>621.14</v>
+        <v>601.04</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43455</v>
       </c>
@@ -3537,14 +4134,14 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M22">
         <v>14</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O22">
         <v>0.3</v>
@@ -3555,10 +4152,10 @@
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>782.30000000000007</v>
+        <v>767.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43456</v>
       </c>
@@ -3594,28 +4191,28 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="M23">
         <v>23</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>9.2000000000000011</v>
+        <v>9.2</v>
       </c>
       <c r="O23">
         <v>0.13</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>5.2000000000000005E-2</v>
+        <v>0.052</v>
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>589.74000000000012</v>
+        <v>565.64</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43457</v>
       </c>
@@ -3665,14 +4262,14 @@
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="Q24">
         <f t="shared" si="3"/>
-        <v>511.66399999999999</v>
+        <v>493.904</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43458</v>
       </c>
@@ -3726,10 +4323,10 @@
       </c>
       <c r="Q25">
         <f t="shared" si="3"/>
-        <v>460.35</v>
+        <v>444.6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43459</v>
       </c>
@@ -3765,14 +4362,14 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0.27999999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="M26">
         <v>12</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3783,10 +4380,10 @@
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>808.78</v>
+        <v>796.08</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43460</v>
       </c>
@@ -3822,7 +4419,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="M27">
         <v>14.6</v>
@@ -3840,10 +4437,10 @@
       </c>
       <c r="Q27">
         <f t="shared" si="3"/>
-        <v>734.54000000000008</v>
+        <v>718.44</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43461</v>
       </c>
@@ -3886,7 +4483,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3897,10 +4494,10 @@
       </c>
       <c r="Q28">
         <f t="shared" si="3"/>
-        <v>698.8</v>
+        <v>686.8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43462</v>
       </c>
@@ -3936,14 +4533,14 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="M29">
         <v>14</v>
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3954,61 +4551,169 @@
       </c>
       <c r="Q29">
         <f t="shared" si="3"/>
-        <v>913.2</v>
+        <v>895.7</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43463</v>
       </c>
+      <c r="B30">
+        <v>181</v>
+      </c>
+      <c r="C30">
+        <v>158</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>240</v>
+      </c>
+      <c r="F30">
+        <v>127</v>
+      </c>
+      <c r="G30">
+        <v>144</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>134</v>
+      </c>
+      <c r="K30">
+        <v>0.06</v>
+      </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.024</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2</v>
+      </c>
+      <c r="O30">
+        <v>0.1</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1250.264</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43464</v>
       </c>
+      <c r="B31">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>116</v>
+      </c>
+      <c r="D31">
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31">
+        <v>149</v>
+      </c>
+      <c r="G31">
+        <v>98</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>68</v>
+      </c>
+      <c r="J31">
+        <v>156</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>889.36</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43465</v>
       </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>67</v>
+      </c>
+      <c r="E32">
+        <v>103</v>
+      </c>
+      <c r="F32">
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <v>96</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>75</v>
+      </c>
+      <c r="J32">
+        <v>109</v>
+      </c>
+      <c r="K32">
+        <v>0.6</v>
+      </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
@@ -4016,104 +4721,137 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(B32:P32)</f>
+        <v>713.84</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>2683</v>
+        <v>3042</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1641.2</v>
+        <v>1978.2</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1599.2</v>
+        <v>1986.2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1388.1</v>
+        <v>1789.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1298</v>
+        <v>1649</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1492.9</v>
+        <v>1830.9</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>987.3</v>
+        <v>1055.3</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1655.6</v>
+        <v>1831.6</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>2622</v>
+        <v>3021</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>27.499999999999996</v>
+        <v>28.66</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>11.464</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>734.5</v>
+        <v>787.5</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>286.60000000000002</v>
+        <v>307.8</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>76.670000000000016</v>
+        <v>77.17</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>30.667999999999999</v>
+        <v>30.868</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>16534.238000000001</v>
+        <v>18549.032</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <f>SUM(B33,E33,H33,D33)</f>
+        <v>7872.6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6612.98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f>SUM(D36,D37)</f>
+        <v>15273.97</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <f>SUM(C33,J33,I33,F33,G33)</f>
+        <v>10310.7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8660.99</v>
+      </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>318</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:6">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>